--- a/all_programs_smells_summary.xlsx
+++ b/all_programs_smells_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="620" windowWidth="26440" windowHeight="13300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9000" yWindow="1960" windowWidth="26440" windowHeight="13300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EV3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>EV3</t>
   </si>
@@ -218,7 +218,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +241,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,12 +256,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -264,12 +285,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -549,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,1165 +591,1641 @@
     <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="W1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>28</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>35</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>50</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>17</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>12</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>33</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>54</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>7</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>17</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>149</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="4">
         <f>AVERAGE(B2:R2)</f>
         <v>30.176470588235293</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="4">
         <f>STDEV(B2:R2)</f>
         <v>33.537731166027108</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="U2" s="3"/>
+      <c r="W2" s="1">
+        <f>COUNTIF(B14:I14, "&gt;0")/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="X2" s="1">
+        <f>COUNTIF(J14:R14, "&gt;0")/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>COUNTIF(B14:R14, "&gt;0")/17</f>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="5">
         <f>SUM(B3:R3)/17</f>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="T3" s="1">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="T3" s="5">
         <f>SUM(B3:I3)/8</f>
         <v>0.625</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="5">
         <f>SUM(J3:R3)/9</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="5">
         <f t="shared" ref="S4:S13" si="0">SUM(B4:R4)/17</f>
         <v>0</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="5">
         <f t="shared" ref="T4:T13" si="1">SUM(B4:I4)/8</f>
         <v>0</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="5">
         <f t="shared" ref="U4:U13" si="2">SUM(J4:R4)/9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
         <f t="shared" si="0"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="5">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="5">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="5">
         <f t="shared" si="0"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="5">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="5">
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="5">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="5">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="5">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="5">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="5">
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="5">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="5">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="5">
         <f t="shared" si="0"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="5">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="5">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
         <f>SUM(B3:B13)</f>
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:R14" si="3">SUM(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+        <v>2</v>
+      </c>
+      <c r="S14" s="6">
         <f>AVERAGE(B14:R14)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I15">
+        <v>1.9411764705882353</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <f>AVERAGE(B14:I14)</f>
         <v>2.5</v>
       </c>
-      <c r="R15">
-        <f>AVERAGE(B14:J14)</f>
-        <v>2.3333333333333335</v>
-      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
+        <f>AVERAGE(J14:R14)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE14"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1">
+      <c r="AG1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="5">
         <f>SUM(B2:AB2)/27</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="5">
         <f>SUM(B2:R2)/17</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="5">
         <f>SUM(S2:AB2)/10</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="AG2">
+        <f>COUNTIF(B13:R13, "&gt;0")/17</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="AH2">
+        <f>COUNTIF(S13:AB13, "&gt;0")/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI2">
+        <f>COUNTIF(B13:AB13, "&gt;0")/27</f>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC12" si="0">SUM(B3:AB3)/27</f>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="5">
+        <f>SUM(B3:AB3)/27</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="1">
-        <f t="shared" ref="AD3:AD12" si="1">SUM(B3:R3)/17</f>
+      <c r="AD3" s="5">
+        <f>SUM(B3:R3)/17</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE12" si="2">SUM(S3:AB3)/10</f>
+      <c r="AE3" s="5">
+        <f t="shared" ref="AE3:AE12" si="0">SUM(S3:AB3)/10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5">
+        <f>SUM(B4:AB4)/27</f>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="AD4" s="5">
+        <f>SUM(B4:R4)/17</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="AE4" s="5">
         <f t="shared" si="0"/>
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="AD4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5">
+        <f>SUM(B5:AB5)/27</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AD5" s="5">
+        <f>SUM(B5:R5)/17</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AE5" s="5">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="5">
+        <f>SUM(B6:AB6)/27</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AD6" s="5">
+        <f>SUM(B6:R6)/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AE6" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5">
+        <f>SUM(B7:AB7)/27</f>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="AD7" s="5">
+        <f>SUM(B7:R7)/17</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5">
+        <f>SUM(B8:AB8)/27</f>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="AD8" s="5">
+        <f>SUM(B8:R8)/17</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <f>SUM(B9:AB9)/27</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="AD6" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="2"/>
+      <c r="AD9" s="5">
+        <f>SUM(B9:R9)/17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AE9" s="5">
         <f t="shared" si="0"/>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="5">
+        <f>SUM(B10:AB10)/27</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AD10" s="5">
+        <f>SUM(B10:R10)/17</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="7">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="5">
+        <f>SUM(B11:AB11)/27</f>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="AD11" s="5">
+        <f>SUM(B11:R11)/17</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="AE11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5">
+        <f>SUM(B12:AB12)/27</f>
         <v>0.25925925925925924</v>
       </c>
-      <c r="AD8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1">
+      <c r="AD12" s="5">
+        <f>SUM(B12:R12)/17</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="AE12" s="5">
         <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AD9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AD10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="AD11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="AD12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23529411764705882</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:AB13" si="3">SUM(C2:C12)</f>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:Q13" si="1">SUM(C2:C12)</f>
         <v>2</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
+      <c r="P13" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R13" s="4">
-        <f t="shared" ref="R13" si="4">SUM(R2:R12)</f>
+      <c r="R13" s="7">
+        <f t="shared" ref="R13" si="2">SUM(R2:R12)</f>
         <v>2</v>
       </c>
-      <c r="S13">
-        <f t="shared" ref="S13" si="5">SUM(S2:S12)</f>
+      <c r="S13" s="3">
+        <f t="shared" ref="S13" si="3">SUM(S2:S12)</f>
         <v>4</v>
       </c>
-      <c r="T13">
-        <f t="shared" ref="T13" si="6">SUM(T2:T12)</f>
+      <c r="T13" s="3">
+        <f t="shared" ref="T13" si="4">SUM(T2:T12)</f>
         <v>4</v>
       </c>
-      <c r="U13">
-        <f t="shared" ref="U13" si="7">SUM(U2:U12)</f>
+      <c r="U13" s="3">
+        <f t="shared" ref="U13" si="5">SUM(U2:U12)</f>
         <v>3</v>
       </c>
-      <c r="V13">
-        <f t="shared" ref="V13" si="8">SUM(V2:V12)</f>
+      <c r="V13" s="3">
+        <f t="shared" ref="V13" si="6">SUM(V2:V12)</f>
         <v>2</v>
       </c>
-      <c r="W13">
-        <f t="shared" ref="W13" si="9">SUM(W2:W12)</f>
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <f t="shared" ref="X13" si="10">SUM(X2:X12)</f>
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" ref="Y13" si="11">SUM(Y2:Y12)</f>
+      <c r="W13" s="3">
+        <f t="shared" ref="W13" si="7">SUM(W2:W12)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" ref="X13" si="8">SUM(X2:X12)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" ref="Y13" si="9">SUM(Y2:Y12)</f>
         <v>7</v>
       </c>
-      <c r="Z13">
-        <f t="shared" ref="Z13" si="12">SUM(Z2:Z12)</f>
+      <c r="Z13" s="3">
+        <f t="shared" ref="Z13" si="10">SUM(Z2:Z12)</f>
         <v>6</v>
       </c>
-      <c r="AA13">
-        <f t="shared" ref="AA13" si="13">SUM(AA2:AA12)</f>
+      <c r="AA13" s="3">
+        <f t="shared" ref="AA13" si="11">SUM(AA2:AA12)</f>
         <v>0</v>
       </c>
-      <c r="AB13">
-        <f t="shared" ref="AB13" si="14">SUM(AB2:AB12)</f>
+      <c r="AB13" s="3">
+        <f t="shared" ref="AB13" si="12">SUM(AB2:AB12)</f>
         <v>7</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="6">
         <f>AVERAGE(B13:AB13)</f>
         <v>2.8148148148148149</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="R14" s="4">
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="7">
         <f>AVERAGE(B13:R13)</f>
         <v>2.4117647058823528</v>
       </c>
-      <c r="AB14">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3">
         <f>AVERAGE(S13:AB13)</f>
         <v>3.5</v>
       </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>